--- a/covid_19_Pakistan_time_series.xlsx
+++ b/covid_19_Pakistan_time_series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AE\Dropbox (Work Related)\GitHub\covid-19-pk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AE4\Dropbox (Work Related)\GitHub\covid-19-pk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4E1AD-33B3-4D02-90AB-40E6BD0B0871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0F02D7-E3D3-4112-A70A-895D0B2142F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="813" xr2:uid="{5F01308F-09D5-4FDF-A619-D8891153871E}"/>
   </bookViews>
@@ -18,15 +18,18 @@
     <sheet name="covid_19_province_time_series" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">covid_19_province_time_series!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">covid_19_province_time_series!$B$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">covid_19_province_time_series!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">covid_19_province_time_series!$C$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">covid_19_province_time_series!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">covid_19_province_time_series!$D$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">covid_19_province_time_series!$D$3:$D$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">covid_19_province_time_series!$A$12:$B$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">covid_19_province_time_series!$C$11:$I$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">covid_19_province_time_series!$C$12:$I$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">covid_19_province_time_series!$A$3:$A$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">covid_19_province_time_series!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">covid_19_province_time_series!$B$3:$B$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">covid_19_province_time_series!$C$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">covid_19_province_time_series!$C$3:$C$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">covid_19_province_time_series!$D$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">covid_19_province_time_series!$D$3:$D$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -151,31 +152,10 @@
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>2020-03-20T14:43:04</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>2020-03-20T14:13:37</t>
-  </si>
-  <si>
     <t>India</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>2020-03-15T18:20:18</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>2020-03-13T22:22:03</t>
   </si>
   <si>
     <t>Pakistan</t>
@@ -184,38 +164,59 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>2020-03-21T12:43:08</t>
-  </si>
-  <si>
     <t>2020-03-21T17:43:03</t>
   </si>
   <si>
-    <t>2020-03-21T20:13:21</t>
+    <t>This data is gathered using publicly available data from multiple sources, that do not always agree. I hereby disclaim any and all representations and warranties with respect to the data, including accuracy, fitness for use, and merchantability. Reliance on this data or mapping or analysis for medical guidance or in commerce is strictly prohibited.</t>
   </si>
   <si>
-    <t>This data is gathered using publicly available data from multiple sources, that do not always agree. I hereby disclaim any and all representations and warranties with respect to the data, including accuracy, fitness for use, and merchantability. Reliance on this data or mapping or analysis for medical guidance or in commerce is strictly prohibited.</t>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>Tests Performed</t>
+  </si>
+  <si>
+    <t>2020-03-22T23:13:18</t>
+  </si>
+  <si>
+    <t>2020-03-23T12:32:21</t>
+  </si>
+  <si>
+    <t>2020-03-22T23:43:03</t>
+  </si>
+  <si>
+    <t>2020-03-22T14:43:19</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>2020-03-22T22:43:03</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>2020-03-22T16:13:11</t>
+  </si>
+  <si>
+    <t>Saudia Arabia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>2020-03-22T14:13:06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,14 +256,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
@@ -275,8 +268,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Dubai"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF002060"/>
+      <name val="Dubai"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Dubai"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,23 +332,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -342,7 +374,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -352,7 +424,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -360,12 +432,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -374,18 +446,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -394,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,43 +483,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,17 +501,93 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,20 +605,40 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Dubai"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <numFmt numFmtId="164" formatCode="d\-mmm"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <numFmt numFmtId="164" formatCode="d\-mmm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -591,25 +732,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,10 +952,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>covid_19_Pakistan_time_series!$A$3:$A$13</c:f>
+              <c:f>covid_19_Pakistan_time_series!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43902</c:v>
                 </c:pt>
@@ -866,16 +988,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_Pakistan_time_series!$B$3:$B$13</c:f>
+              <c:f>covid_19_Pakistan_time_series!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -907,7 +1032,10 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>730</c:v>
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,459 +1233,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900"/>
-              <a:t>SAARC</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" baseline="0"/>
-              <a:t> Confirmed Cases</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dashboard!$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Confirmed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$A$19:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Afghanistan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bangladesh</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bhutan</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>India</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maldives</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Nepal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pakistan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sri Lanka</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$19:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E0B-4971-891D-F811040B675F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="1094432832"/>
-        <c:axId val="1300403168"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="1094432832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1300403168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1300403168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1094432832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -1664,9 +1339,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$E$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1678,16 +1353,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$3:$E$3</c:f>
+              <c:f>covid_19_province_time_series!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>78</c:v>
                 </c:pt>
@@ -1699,6 +1377,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,9 +1481,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$E$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1814,16 +1495,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$4:$E$4</c:f>
+              <c:f>covid_19_province_time_series!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>238</c:v>
                 </c:pt>
@@ -1835,6 +1519,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,9 +1567,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$E$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1894,16 +1581,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$5:$E$5</c:f>
+              <c:f>covid_19_province_time_series!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -1914,6 +1604,9 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -2016,9 +1709,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$E$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -2030,16 +1723,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$6:$E$6</c:f>
+              <c:f>covid_19_province_time_series!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
@@ -2051,6 +1747,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,9 +1795,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$E$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -2110,16 +1809,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$7:$E$7</c:f>
+              <c:f>covid_19_province_time_series!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2130,6 +1832,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2176,9 +1881,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$E$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -2190,16 +1895,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$8:$E$8</c:f>
+              <c:f>covid_19_province_time_series!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2211,6 +1919,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,9 +1970,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$E$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -2273,16 +1984,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$9:$E$9</c:f>
+              <c:f>covid_19_province_time_series!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2294,6 +2008,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,26 +2227,206 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{234436CA-46C6-49E9-A2E5-55B58E684C7E}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Confirmed 23-Mar</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>, </cx:separator>
+            <cx:dataLabel idx="0">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="1200"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>ICT, 15</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+            </cx:dataLabel>
+            <cx:dataLabel idx="1">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="2400"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>Punjab, 225</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+            </cx:dataLabel>
+            <cx:dataLabel idx="2">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="3200">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>Sindh, 333</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+            </cx:dataLabel>
+            <cx:dataLabel idx="3">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="1800">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>KP, 31</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+            </cx:dataLabel>
+            <cx:dataLabel idx="4">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="1200"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>Balochistan, 108</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+            </cx:dataLabel>
+            <cx:dataLabel idx="6">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>GB, 71</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2572,7 +2469,7 @@
         <cx:series layoutId="waterfall" uniqueId="{C9DEAE2B-07FF-4989-8948-3C5D76115403}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>19-Mar</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2603,7 +2500,7 @@
         <cx:series layoutId="waterfall" hidden="1" uniqueId="{32714AC9-FD5C-4E86-B381-3F5E2B769EEA}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>20-Mar</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2619,7 +2516,7 @@
         <cx:series layoutId="waterfall" hidden="1" uniqueId="{436DEBF1-4984-4AB0-9583-5260250A1552}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>21-Mar</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2747,10 +2644,13 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3320,6 +3220,1108 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="415">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="397">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3874,1037 +4876,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>624416</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4931,126 +4916,12 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>93132</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>74083</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD8D1E3-2F24-4048-AD20-8E6BCF426240}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10443632" y="390525"/>
-              <a:ext cx="4277784" cy="2456392"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B14C343-3479-40AD-B57E-BD2AF0363D40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="994834" cy="264584"/>
     <xdr:sp macro="" textlink="">
@@ -5066,7 +4937,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7302500" y="4826000"/>
+          <a:off x="603250" y="2032000"/>
           <a:ext cx="994834" cy="264584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5104,15 +4975,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5134,35 +5005,199 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5292</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C71ADC0-C1E0-439D-8F30-2DD568D73B5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4362450" y="3838575"/>
+              <a:ext cx="4882092" cy="2824692"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>170392</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF607FBC-2D6E-400D-87FF-0A47CBF0E823}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5791200" y="533400"/>
+              <a:ext cx="4277784" cy="2456392"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1C79819E-E038-4E01-82B9-80BDC7410ED4}" name="Table4" displayName="Table4" ref="A14:E26" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A14:E26" xr:uid="{A1BB62C5-C854-477C-9C69-605D06012F9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1C79819E-E038-4E01-82B9-80BDC7410ED4}" name="Table4" displayName="Table4" ref="B22:F31" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B22:F31" xr:uid="{A1BB62C5-C854-477C-9C69-605D06012F9B}"/>
+  <sortState ref="B23:F31">
+    <sortCondition descending="1" ref="D23"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D040A444-FE02-42F3-99A7-0358484D4913}" name="Column1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{95699A0C-1B41-467D-BBF8-FC04CEC4B895}" name="Column2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1B990645-4EB4-4E0F-B070-745DC980046A}" name="Column3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F2F8BA7F-4045-4E11-856C-80F0575F4BE7}" name="Column4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{66137031-EC69-4F0C-B341-A52BE58F0589}" name="Column5" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{D040A444-FE02-42F3-99A7-0358484D4913}" name="Country/Region" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{95699A0C-1B41-467D-BBF8-FC04CEC4B895}" name="Last Update" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1B990645-4EB4-4E0F-B070-745DC980046A}" name="Confirmed" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F2F8BA7F-4045-4E11-856C-80F0575F4BE7}" name="Deaths" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{66137031-EC69-4F0C-B341-A52BE58F0589}" name="Recovered" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6091FF0E-E43E-4E3F-9041-8B3B2582CB6A}" name="Table1" displayName="Table1" ref="A2:D52" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6091FF0E-E43E-4E3F-9041-8B3B2582CB6A}" name="Table1" displayName="Table1" ref="A2:D52" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:D52" xr:uid="{7DA1FE78-AF88-40E8-B463-0E329D16A3B6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FB3580A6-8205-482B-9671-D65C9399B8F0}" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F17BD441-BB50-44E5-9D68-82C663A32D19}" name="Confirmed Cases" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{FB3580A6-8205-482B-9671-D65C9399B8F0}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F17BD441-BB50-44E5-9D68-82C663A32D19}" name="Confirmed Cases" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{AD7C0FEF-D8E7-4D16-9098-E3F54DD04287}" name="Deaths"/>
     <tableColumn id="5" xr3:uid="{DFBC65D9-0335-408E-916D-D4DA159D5775}" name="Recovered"/>
   </tableColumns>
@@ -5171,7 +5206,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79262D23-AE7A-474E-9A8F-DFDA998B5D2E}" name="Table2" displayName="Table2" ref="B2:T9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79262D23-AE7A-474E-9A8F-DFDA998B5D2E}" name="Table2" displayName="Table2" ref="B2:T9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:T9" xr:uid="{4DC40EC6-EDC8-425F-A9B3-A7B5EB88BE1E}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{3BFBBD95-361E-4F54-9954-88F132DBDD79}" name="19-Mar"/>
@@ -5495,233 +5530,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8835D9DB-0239-4832-BBB4-24351569A65C}">
-  <dimension ref="A14:L26"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="G18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="42">
+        <v>21638</v>
+      </c>
+      <c r="E23" s="42">
+        <v>1685</v>
+      </c>
+      <c r="F23" s="43">
+        <v>7931</v>
+      </c>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="42">
+        <v>5683</v>
+      </c>
+      <c r="E24" s="42">
+        <v>281</v>
+      </c>
+      <c r="F24" s="43">
+        <v>65</v>
+      </c>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="25">
+        <v>784</v>
+      </c>
+      <c r="E25" s="25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="26">
+        <v>6</v>
+      </c>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="21">
+        <v>511</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="22">
+        <v>16</v>
+      </c>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="21">
+        <v>396</v>
+      </c>
+      <c r="E27" s="21">
+        <v>7</v>
+      </c>
+      <c r="F27" s="22">
+        <v>27</v>
+      </c>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="21">
+        <v>153</v>
+      </c>
+      <c r="E28" s="21">
+        <v>2</v>
+      </c>
+      <c r="F28" s="22">
+        <v>38</v>
+      </c>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="21">
+        <v>82</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <v>3</v>
+      </c>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D30" s="21">
+        <v>40</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="12">
-        <v>24</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="12">
-        <v>25</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="D31" s="29">
+        <v>27</v>
+      </c>
+      <c r="E31" s="29">
         <v>2</v>
       </c>
-      <c r="E20" s="12">
+      <c r="F31" s="30">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="12">
-        <v>330</v>
-      </c>
-      <c r="D22" s="12">
-        <v>4</v>
-      </c>
-      <c r="E22" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="12">
-        <v>13</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="15">
-        <v>730</v>
-      </c>
-      <c r="D25" s="15">
-        <v>3</v>
-      </c>
-      <c r="E25" s="15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="12">
-        <v>77</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
+      <c r="O31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="G18:N18"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C19:C26">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="D25:D31">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -5730,27 +5918,27 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63DBF075-0A2D-4413-95DC-190562E69407}</x14:id>
+          <x14:id>{AAF00D91-AEF6-4347-B800-737D6FC89805}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E26">
+  <conditionalFormatting sqref="F25:F31">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B595394B-ACBF-435D-AE67-AC69846C064E}</x14:id>
+          <x14:id>{997CE116-21AA-435E-9C5B-A41B62D8A687}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="94" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -5759,7 +5947,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63DBF075-0A2D-4413-95DC-190562E69407}">
+          <x14:cfRule type="dataBar" id="{AAF00D91-AEF6-4347-B800-737D6FC89805}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5769,20 +5957,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C19:C26</xm:sqref>
+          <xm:sqref>D25:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B595394B-ACBF-435D-AE67-AC69846C064E}">
+          <x14:cfRule type="dataBar" id="{997CE116-21AA-435E-9C5B-A41B62D8A687}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E19:E26</xm:sqref>
+          <xm:sqref>F25:F31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5795,7 +5983,7 @@
   <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5920,19 +6108,28 @@
         <v>43912</v>
       </c>
       <c r="B13" s="2">
-        <v>730</v>
+        <v>646</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43913</v>
       </c>
+      <c r="B14" s="2">
+        <v>784</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6122,6 +6319,554 @@
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526C9730-845F-4FBA-ACDD-52FAF33B740C}">
+  <dimension ref="A2:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>152</v>
+      </c>
+      <c r="F3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>238</v>
+      </c>
+      <c r="C4">
+        <v>245</v>
+      </c>
+      <c r="D4">
+        <v>259</v>
+      </c>
+      <c r="E4">
+        <v>292</v>
+      </c>
+      <c r="F4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="13">
+        <v>43913</v>
+      </c>
+      <c r="C12" s="12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>225</v>
+      </c>
+      <c r="E12">
+        <v>333</v>
+      </c>
+      <c r="F12">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>108</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="13">
+        <v>43913</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="13">
+        <v>43913</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="13">
+        <v>43913</v>
+      </c>
+      <c r="C15" s="12">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>152</v>
+      </c>
+      <c r="E15">
+        <v>288</v>
+      </c>
+      <c r="F15">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>104</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="13">
+        <v>43913</v>
+      </c>
+      <c r="C16" s="12">
+        <v>366</v>
+      </c>
+      <c r="D16">
+        <v>1361</v>
+      </c>
+      <c r="E16">
+        <v>1497</v>
+      </c>
+      <c r="F16">
+        <v>264</v>
+      </c>
+      <c r="G16">
+        <v>1380</v>
+      </c>
+      <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="13">
+        <v>43912</v>
+      </c>
+      <c r="C17" s="12">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>152</v>
+      </c>
+      <c r="E17">
+        <v>292</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>104</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="13">
+        <v>43912</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="13">
+        <v>43912</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13">
+        <v>43912</v>
+      </c>
+      <c r="C20" s="12">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>152</v>
+      </c>
+      <c r="E20">
+        <v>288</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>104</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13">
+        <v>43912</v>
+      </c>
+      <c r="C21" s="12">
+        <v>366</v>
+      </c>
+      <c r="D21">
+        <v>1361</v>
+      </c>
+      <c r="E21">
+        <v>1497</v>
+      </c>
+      <c r="F21">
+        <v>264</v>
+      </c>
+      <c r="G21">
+        <v>1380</v>
+      </c>
+      <c r="H21">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6131,208 +6876,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526C9730-845F-4FBA-ACDD-52FAF33B740C}">
-  <dimension ref="A2:T9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="7.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>83</v>
-      </c>
-      <c r="D3">
-        <v>104</v>
-      </c>
-      <c r="E3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>238</v>
-      </c>
-      <c r="C4">
-        <v>245</v>
-      </c>
-      <c r="D4">
-        <v>259</v>
-      </c>
-      <c r="E4">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>81</v>
-      </c>
-      <c r="C6">
-        <v>81</v>
-      </c>
-      <c r="D6">
-        <v>103</v>
-      </c>
-      <c r="E6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/covid_19_Pakistan_time_series.xlsx
+++ b/covid_19_Pakistan_time_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AE4\Dropbox (Work Related)\GitHub\covid-19-pk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AE\Dropbox (Work Related)\GitHub\covid-19-pk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0F02D7-E3D3-4112-A70A-895D0B2142F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B2C87-10F4-45DB-A11E-932267413471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="813" xr2:uid="{5F01308F-09D5-4FDF-A619-D8891153871E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="813" activeTab="1" xr2:uid="{5F01308F-09D5-4FDF-A619-D8891153871E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>2020-03-21T17:43:03</t>
-  </si>
-  <si>
     <t>This data is gathered using publicly available data from multiple sources, that do not always agree. I hereby disclaim any and all representations and warranties with respect to the data, including accuracy, fitness for use, and merchantability. Reliance on this data or mapping or analysis for medical guidance or in commerce is strictly prohibited.</t>
   </si>
   <si>
@@ -179,28 +176,10 @@
     <t>Tests Performed</t>
   </si>
   <si>
-    <t>2020-03-22T23:13:18</t>
-  </si>
-  <si>
-    <t>2020-03-23T12:32:21</t>
-  </si>
-  <si>
-    <t>2020-03-22T23:43:03</t>
-  </si>
-  <si>
-    <t>2020-03-22T14:43:19</t>
-  </si>
-  <si>
     <t>UAE</t>
   </si>
   <si>
-    <t>2020-03-22T22:43:03</t>
-  </si>
-  <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>2020-03-22T16:13:11</t>
   </si>
   <si>
     <t>Saudia Arabia</t>
@@ -208,15 +187,12 @@
   <si>
     <t>Iran</t>
   </si>
-  <si>
-    <t>2020-03-22T14:13:06</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +282,14 @@
       <family val="2"/>
       <charset val="178"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -345,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -462,11 +446,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,26 +573,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -531,9 +589,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -542,9 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -555,9 +607,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -580,14 +629,57 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,22 +689,49 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <name val="Dubai"/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <charset val="178"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -631,14 +750,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="d\-mmm"/>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d\-mmm"/>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -688,50 +807,23 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <sz val="8"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Dubai"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="178"/>
+        <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -952,10 +1044,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>covid_19_Pakistan_time_series!$A$3:$A$14</c:f>
+              <c:f>covid_19_Pakistan_time_series!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43902</c:v>
                 </c:pt>
@@ -991,16 +1083,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_Pakistan_time_series!$B$3:$B$14</c:f>
+              <c:f>covid_19_Pakistan_time_series!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -1036,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,7 +1295,9 @@
       <a:tileRect/>
     </a:gradFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1282,6 +1382,36 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1339,9 +1469,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1356,16 +1486,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$3:$F$3</c:f>
+              <c:f>covid_19_province_time_series!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>78</c:v>
                 </c:pt>
@@ -1380,6 +1513,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,9 +1617,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1498,16 +1634,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$4:$F$4</c:f>
+              <c:f>covid_19_province_time_series!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>238</c:v>
                 </c:pt>
@@ -1522,6 +1661,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,93 +1707,57 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>19-Mar</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20-Mar</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21-Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22-Mar</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23-Mar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>covid_19_province_time_series!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BEE7-46B9-AB6C-8CAAED24947A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>covid_19_province_time_series!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Balochistan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1680,7 +1786,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1709,9 +1814,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1726,16 +1831,207 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$6:$F$6</c:f>
+              <c:f>covid_19_province_time_series!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BEE7-46B9-AB6C-8CAAED24947A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>covid_19_province_time_series!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balochistan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>covid_19_province_time_series!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-Mar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21-Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24-Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>covid_19_province_time_series!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
@@ -1750,6 +2046,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,11 +2092,116 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1812,16 +2216,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$7:$F$7</c:f>
+              <c:f>covid_19_province_time_series!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1835,6 +2242,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1879,11 +2289,96 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-D016-4EEB-A334-E4E4CB872CF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1898,16 +2393,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$8:$F$8</c:f>
+              <c:f>covid_19_province_time_series!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1922,6 +2420,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,9 +2471,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>covid_19_province_time_series!$B$2:$F$2</c:f>
+              <c:f>covid_19_province_time_series!$B$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19-Mar</c:v>
                 </c:pt>
@@ -1987,16 +2488,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>covid_19_province_time_series!$B$9:$F$9</c:f>
+              <c:f>covid_19_province_time_series!$B$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2010,6 +2514,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2195,10 +2702,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2241,9 +2745,16 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Confirmed 23-Mar</cx:v>
+              <cx:v>Confirmed 24-Mar</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataLabels pos="inEnd">
             <cx:txPr>
               <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
@@ -2297,7 +2808,7 @@
                       </a:solidFill>
                       <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                     </a:rPr>
-                    <a:t>Punjab, 225</a:t>
+                    <a:t>Punjab, 249</a:t>
                   </a:r>
                 </a:p>
               </cx:txPr>
@@ -2321,7 +2832,7 @@
                       </a:solidFill>
                       <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                     </a:rPr>
-                    <a:t>Sindh, 333</a:t>
+                    <a:t>Sindh, 394</a:t>
                   </a:r>
                 </a:p>
               </cx:txPr>
@@ -2345,7 +2856,7 @@
                       </a:solidFill>
                       <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                     </a:rPr>
-                    <a:t>KP, 31</a:t>
+                    <a:t>KP, 38</a:t>
                   </a:r>
                 </a:p>
               </cx:txPr>
@@ -2365,7 +2876,7 @@
                       </a:solidFill>
                       <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                     </a:rPr>
-                    <a:t>Balochistan, 108</a:t>
+                    <a:t>Balochistan, 110</a:t>
                   </a:r>
                 </a:p>
               </cx:txPr>
@@ -2385,7 +2896,7 @@
                       </a:solidFill>
                       <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                     </a:rPr>
-                    <a:t>GB, 71</a:t>
+                    <a:t>GB, 80</a:t>
                   </a:r>
                 </a:p>
               </cx:txPr>
@@ -2399,167 +2910,13 @@
       </cx:plotAreaRegion>
     </cx:plotArea>
   </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Confirmed Cases By Province</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1200">
-              <a:latin typeface="Biome Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Biome Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Biome Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Biome Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Biome Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Confirmed Cases By Province</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="waterfall" uniqueId="{C9DEAE2B-07FF-4989-8948-3C5D76115403}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>19-Mar</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:txPr>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:txPr>
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility connectorLines="0"/>
-            <cx:subtotals/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="waterfall" hidden="1" uniqueId="{32714AC9-FD5C-4E86-B381-3F5E2B769EEA}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>20-Mar</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility connectorLines="0"/>
-            <cx:subtotals/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="waterfall" hidden="1" uniqueId="{436DEBF1-4984-4AB0-9583-5260250A1552}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>21-Mar</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility connectorLines="0"/>
-            <cx:subtotals/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0.25"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1100"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -2683,46 +3040,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -4316,561 +4633,6 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="397">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-                <a:lumOff val="10000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-                <a:lumOff val="10000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4983,8 +4745,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5058,91 +4820,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4362450" y="3838575"/>
-              <a:ext cx="4882092" cy="2824692"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10584</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>170392</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF607FBC-2D6E-400D-87FF-0A47CBF0E823}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5791200" y="533400"/>
-              <a:ext cx="4277784" cy="2456392"/>
+              <a:off x="4467225" y="3876675"/>
+              <a:ext cx="4882092" cy="2958042"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5176,28 +4855,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1C79819E-E038-4E01-82B9-80BDC7410ED4}" name="Table4" displayName="Table4" ref="B22:F31" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1C79819E-E038-4E01-82B9-80BDC7410ED4}" name="Table4" displayName="Table4" ref="B22:F31" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B22:F31" xr:uid="{A1BB62C5-C854-477C-9C69-605D06012F9B}"/>
-  <sortState ref="B23:F31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:F31">
     <sortCondition descending="1" ref="D23"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D040A444-FE02-42F3-99A7-0358484D4913}" name="Country/Region" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{95699A0C-1B41-467D-BBF8-FC04CEC4B895}" name="Last Update" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{1B990645-4EB4-4E0F-B070-745DC980046A}" name="Confirmed" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F2F8BA7F-4045-4E11-856C-80F0575F4BE7}" name="Deaths" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{66137031-EC69-4F0C-B341-A52BE58F0589}" name="Recovered" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D040A444-FE02-42F3-99A7-0358484D4913}" name="Country/Region" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{95699A0C-1B41-467D-BBF8-FC04CEC4B895}" name="Last Update" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1B990645-4EB4-4E0F-B070-745DC980046A}" name="Confirmed" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F2F8BA7F-4045-4E11-856C-80F0575F4BE7}" name="Deaths" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{66137031-EC69-4F0C-B341-A52BE58F0589}" name="Recovered" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6091FF0E-E43E-4E3F-9041-8B3B2582CB6A}" name="Table1" displayName="Table1" ref="A2:D52" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6091FF0E-E43E-4E3F-9041-8B3B2582CB6A}" name="Table1" displayName="Table1" ref="A2:D52" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A2:D52" xr:uid="{7DA1FE78-AF88-40E8-B463-0E329D16A3B6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FB3580A6-8205-482B-9671-D65C9399B8F0}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F17BD441-BB50-44E5-9D68-82C663A32D19}" name="Confirmed Cases" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FB3580A6-8205-482B-9671-D65C9399B8F0}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F17BD441-BB50-44E5-9D68-82C663A32D19}" name="Confirmed Cases" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{AD7C0FEF-D8E7-4D16-9098-E3F54DD04287}" name="Deaths"/>
     <tableColumn id="5" xr3:uid="{DFBC65D9-0335-408E-916D-D4DA159D5775}" name="Recovered"/>
   </tableColumns>
@@ -5206,7 +4885,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79262D23-AE7A-474E-9A8F-DFDA998B5D2E}" name="Table2" displayName="Table2" ref="B2:T9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79262D23-AE7A-474E-9A8F-DFDA998B5D2E}" name="Table2" displayName="Table2" ref="B2:T9" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B2:T9" xr:uid="{4DC40EC6-EDC8-425F-A9B3-A7B5EB88BE1E}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{3BFBBD95-361E-4F54-9954-88F132DBDD79}" name="19-Mar"/>
@@ -5535,92 +5214,92 @@
   </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="A2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="A3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="A4" s="23"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="A5" s="23"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="A6" s="23"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="A7" s="23"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="O8" s="31"/>
+      <c r="A8" s="23"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="A9" s="23"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="O10" s="31"/>
+      <c r="A10" s="23"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="A11" s="23"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="O12" s="31"/>
+      <c r="A12" s="23"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="A13" s="23"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="A14" s="23"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="24"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -5632,277 +5311,277 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="11"/>
-      <c r="O15" s="32"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="23"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
-      <c r="O16" s="31"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="23"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
-      <c r="O17" s="31"/>
+      <c r="O17" s="23"/>
     </row>
     <row r="18" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="G18" s="33" t="s">
+      <c r="A18" s="23"/>
+      <c r="G18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="54">
+        <v>43913.971770833334</v>
+      </c>
+      <c r="D23" s="32">
+        <v>23049</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1812</v>
+      </c>
+      <c r="F23" s="33">
+        <v>8376</v>
+      </c>
+      <c r="O23" s="23"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="54">
+        <v>43913.971770833334</v>
+      </c>
+      <c r="D24" s="32">
+        <v>6650</v>
+      </c>
+      <c r="E24" s="32">
+        <v>335</v>
+      </c>
+      <c r="F24" s="33">
+        <v>135</v>
+      </c>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="55">
+        <v>43914.522465277776</v>
+      </c>
+      <c r="D25" s="18">
+        <v>887</v>
+      </c>
+      <c r="E25" s="18">
+        <v>6</v>
+      </c>
+      <c r="F25" s="19">
+        <v>6</v>
+      </c>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="56">
+        <v>43913.971770833334</v>
+      </c>
+      <c r="D26" s="15">
+        <v>511</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>16</v>
+      </c>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="56">
+        <v>43913.971770833334</v>
+      </c>
+      <c r="D27" s="15">
+        <v>499</v>
+      </c>
+      <c r="E27" s="15">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16">
+        <v>34</v>
+      </c>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="56">
+        <v>43913.971770833334</v>
+      </c>
+      <c r="D28" s="15">
+        <v>198</v>
+      </c>
+      <c r="E28" s="15">
+        <v>2</v>
+      </c>
+      <c r="F28" s="16">
+        <v>41</v>
+      </c>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="56">
+        <v>43913.971770833334</v>
+      </c>
+      <c r="D29" s="15">
+        <v>97</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2</v>
+      </c>
+      <c r="O29" s="23"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="56">
+        <v>43913.971770833334</v>
+      </c>
+      <c r="D30" s="15">
         <v>40</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="38" t="s">
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="57">
+        <v>43913.971770833334</v>
+      </c>
+      <c r="D31" s="21">
         <v>33</v>
       </c>
-      <c r="E22" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="34"/>
-    </row>
-    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="42">
-        <v>21638</v>
-      </c>
-      <c r="E23" s="42">
-        <v>1685</v>
-      </c>
-      <c r="F23" s="43">
-        <v>7931</v>
-      </c>
-      <c r="O23" s="31"/>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="42">
-        <v>5683</v>
-      </c>
-      <c r="E24" s="42">
-        <v>281</v>
-      </c>
-      <c r="F24" s="43">
-        <v>65</v>
-      </c>
-      <c r="O24" s="31"/>
-    </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="25">
-        <v>784</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="E31" s="21">
+        <v>3</v>
+      </c>
+      <c r="F31" s="22">
         <v>5</v>
       </c>
-      <c r="F25" s="26">
-        <v>6</v>
-      </c>
-      <c r="O25" s="31"/>
-    </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="21">
-        <v>511</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0</v>
-      </c>
-      <c r="F26" s="22">
-        <v>16</v>
-      </c>
-      <c r="O26" s="31"/>
-    </row>
-    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="21">
-        <v>396</v>
-      </c>
-      <c r="E27" s="21">
-        <v>7</v>
-      </c>
-      <c r="F27" s="22">
-        <v>27</v>
-      </c>
-      <c r="O27" s="31"/>
-    </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="21">
-        <v>153</v>
-      </c>
-      <c r="E28" s="21">
-        <v>2</v>
-      </c>
-      <c r="F28" s="22">
-        <v>38</v>
-      </c>
-      <c r="O28" s="31"/>
-    </row>
-    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="21">
-        <v>82</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22">
-        <v>3</v>
-      </c>
-      <c r="O29" s="31"/>
-    </row>
-    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="21">
-        <v>40</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="22">
-        <v>1</v>
-      </c>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="29">
-        <v>27</v>
-      </c>
-      <c r="E31" s="29">
-        <v>2</v>
-      </c>
-      <c r="F31" s="30">
-        <v>3</v>
-      </c>
-      <c r="O31" s="31"/>
+      <c r="O31" s="23"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5938,7 +5617,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -5982,8 +5661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAD6A82-A672-4F12-B72A-6FBB0A4613FC}">
   <dimension ref="A2:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,6 +5694,12 @@
       <c r="B3" s="2">
         <v>20</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -6023,6 +5708,12 @@
       <c r="B4" s="2">
         <v>21</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -6031,6 +5722,12 @@
       <c r="B5" s="2">
         <v>28</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -6039,6 +5736,12 @@
       <c r="B6" s="2">
         <v>31</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -6047,6 +5750,12 @@
       <c r="B7" s="2">
         <v>53</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -6055,6 +5764,12 @@
       <c r="B8" s="2">
         <v>187</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -6063,6 +5778,12 @@
       <c r="B9" s="2">
         <v>241</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -6072,7 +5793,10 @@
         <v>302</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,6 +5859,15 @@
       <c r="A15" s="1">
         <v>43914</v>
       </c>
+      <c r="B15" s="2">
+        <v>887</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -6324,19 +6057,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526C9730-845F-4FBA-ACDD-52FAF33B740C}">
-  <dimension ref="A2:T21"/>
+  <dimension ref="A2:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6349,7 +6081,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6429,6 +6161,9 @@
       <c r="F3">
         <v>225</v>
       </c>
+      <c r="G3">
+        <v>249</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6449,6 +6184,9 @@
       <c r="F4">
         <v>333</v>
       </c>
+      <c r="G4">
+        <v>394</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -6469,6 +6207,9 @@
       <c r="F5">
         <v>31</v>
       </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -6489,6 +6230,9 @@
       <c r="F6">
         <v>108</v>
       </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -6509,6 +6253,9 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -6529,6 +6276,9 @@
       <c r="F8">
         <v>71</v>
       </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -6549,323 +6299,471 @@
       <c r="F9">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="35">
+        <v>43914</v>
+      </c>
+      <c r="C12" s="36">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37">
+        <v>249</v>
+      </c>
+      <c r="E12" s="37">
+        <v>394</v>
+      </c>
+      <c r="F12" s="37">
+        <v>38</v>
+      </c>
+      <c r="G12" s="37">
+        <v>110</v>
+      </c>
+      <c r="H12" s="37">
+        <v>1</v>
+      </c>
+      <c r="I12" s="38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="40">
+        <v>43914</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2</v>
+      </c>
+      <c r="D13" s="42">
+        <v>0</v>
+      </c>
+      <c r="E13" s="42">
+        <v>4</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0</v>
+      </c>
+      <c r="H13" s="41">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="40">
+        <v>43914</v>
+      </c>
+      <c r="C14" s="41">
+        <v>0</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1</v>
+      </c>
+      <c r="F14" s="42">
+        <v>3</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0</v>
+      </c>
+      <c r="I14" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B15" s="40">
+        <v>43914</v>
+      </c>
+      <c r="C15" s="41">
+        <v>13</v>
+      </c>
+      <c r="D15" s="42">
+        <v>249</v>
+      </c>
+      <c r="E15" s="42">
+        <v>389</v>
+      </c>
+      <c r="F15" s="42">
+        <v>35</v>
+      </c>
+      <c r="G15" s="42">
+        <v>109</v>
+      </c>
+      <c r="H15" s="42">
+        <v>1</v>
+      </c>
+      <c r="I15" s="44">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="46">
+        <v>43914</v>
+      </c>
+      <c r="C16" s="47">
+        <v>366</v>
+      </c>
+      <c r="D16" s="48">
+        <v>1361</v>
+      </c>
+      <c r="E16" s="48">
+        <v>1497</v>
+      </c>
+      <c r="F16" s="48">
+        <v>264</v>
+      </c>
+      <c r="G16" s="48">
+        <v>1380</v>
+      </c>
+      <c r="H16" s="48">
+        <v>42</v>
+      </c>
+      <c r="I16" s="49">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="35">
+        <v>43913</v>
+      </c>
+      <c r="C17" s="36">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37">
+        <v>225</v>
+      </c>
+      <c r="E17" s="37">
+        <v>333</v>
+      </c>
+      <c r="F17" s="37">
+        <v>31</v>
+      </c>
+      <c r="G17" s="37">
+        <v>108</v>
+      </c>
+      <c r="H17" s="37">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="40">
+        <v>43913</v>
+      </c>
+      <c r="C18" s="41">
+        <v>2</v>
+      </c>
+      <c r="D18" s="42">
         <v>0</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="E18" s="42">
         <v>4</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="F18" s="42">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="41">
+        <v>0</v>
+      </c>
+      <c r="I18" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="40">
+        <v>43913</v>
+      </c>
+      <c r="C19" s="41">
+        <v>0</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0</v>
+      </c>
+      <c r="E19" s="42">
+        <v>1</v>
+      </c>
+      <c r="F19" s="42">
+        <v>3</v>
+      </c>
+      <c r="G19" s="42">
+        <v>1</v>
+      </c>
+      <c r="H19" s="42">
+        <v>0</v>
+      </c>
+      <c r="I19" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="40">
+        <v>43913</v>
+      </c>
+      <c r="C20" s="41">
+        <v>9</v>
+      </c>
+      <c r="D20" s="42">
+        <v>152</v>
+      </c>
+      <c r="E20" s="42">
+        <v>288</v>
+      </c>
+      <c r="F20" s="42">
+        <v>29</v>
+      </c>
+      <c r="G20" s="42">
+        <v>104</v>
+      </c>
+      <c r="H20" s="42">
+        <v>1</v>
+      </c>
+      <c r="I20" s="44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="46">
+        <v>43913</v>
+      </c>
+      <c r="C21" s="47">
+        <v>366</v>
+      </c>
+      <c r="D21" s="48">
+        <v>1361</v>
+      </c>
+      <c r="E21" s="48">
+        <v>1497</v>
+      </c>
+      <c r="F21" s="48">
+        <v>264</v>
+      </c>
+      <c r="G21" s="48">
+        <v>1380</v>
+      </c>
+      <c r="H21" s="48">
+        <v>42</v>
+      </c>
+      <c r="I21" s="49">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="35">
+        <v>43912</v>
+      </c>
+      <c r="C22" s="36">
+        <v>11</v>
+      </c>
+      <c r="D22" s="37">
+        <v>152</v>
+      </c>
+      <c r="E22" s="37">
+        <v>292</v>
+      </c>
+      <c r="F22" s="37">
+        <v>31</v>
+      </c>
+      <c r="G22" s="37">
+        <v>104</v>
+      </c>
+      <c r="H22" s="37">
+        <v>1</v>
+      </c>
+      <c r="I22" s="38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="40">
+        <v>43912</v>
+      </c>
+      <c r="C23" s="41">
         <v>2</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="D23" s="42">
+        <v>0</v>
+      </c>
+      <c r="E23" s="42">
         <v>3</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="13">
-        <v>43913</v>
-      </c>
-      <c r="C12" s="12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>225</v>
-      </c>
-      <c r="E12">
-        <v>333</v>
-      </c>
-      <c r="F12">
-        <v>31</v>
-      </c>
-      <c r="G12">
-        <v>108</v>
-      </c>
-      <c r="H12">
+      <c r="F23" s="42">
+        <v>0</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="40">
+        <v>43912</v>
+      </c>
+      <c r="C24" s="41">
+        <v>0</v>
+      </c>
+      <c r="D24" s="42">
+        <v>0</v>
+      </c>
+      <c r="E24" s="42">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="F24" s="42">
+        <v>2</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0</v>
+      </c>
+      <c r="H24" s="42">
+        <v>0</v>
+      </c>
+      <c r="I24" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="40">
+        <v>43912</v>
+      </c>
+      <c r="C25" s="41">
+        <v>9</v>
+      </c>
+      <c r="D25" s="42">
+        <v>152</v>
+      </c>
+      <c r="E25" s="42">
+        <v>288</v>
+      </c>
+      <c r="F25" s="42">
         <v>29</v>
       </c>
-      <c r="B13" s="13">
-        <v>43913</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="13">
-        <v>43913</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="G25" s="42">
+        <v>104</v>
+      </c>
+      <c r="H25" s="42">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="I25" s="44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="13">
-        <v>43913</v>
-      </c>
-      <c r="C15" s="12">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>152</v>
-      </c>
-      <c r="E15">
-        <v>288</v>
-      </c>
-      <c r="F15">
-        <v>29</v>
-      </c>
-      <c r="G15">
-        <v>104</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="13">
-        <v>43913</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B26" s="46">
+        <v>43912</v>
+      </c>
+      <c r="C26" s="47">
         <v>366</v>
       </c>
-      <c r="D16">
+      <c r="D26" s="48">
         <v>1361</v>
       </c>
-      <c r="E16">
+      <c r="E26" s="48">
         <v>1497</v>
       </c>
-      <c r="F16">
+      <c r="F26" s="48">
         <v>264</v>
       </c>
-      <c r="G16">
+      <c r="G26" s="48">
         <v>1380</v>
       </c>
-      <c r="H16">
+      <c r="H26" s="48">
         <v>42</v>
       </c>
-      <c r="I16">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13">
-        <v>43912</v>
-      </c>
-      <c r="C17" s="12">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>152</v>
-      </c>
-      <c r="E17">
-        <v>292</v>
-      </c>
-      <c r="F17">
-        <v>31</v>
-      </c>
-      <c r="G17">
-        <v>104</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="13">
-        <v>43912</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="13">
-        <v>43912</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="13">
-        <v>43912</v>
-      </c>
-      <c r="C20" s="12">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>152</v>
-      </c>
-      <c r="E20">
-        <v>288</v>
-      </c>
-      <c r="F20">
-        <v>29</v>
-      </c>
-      <c r="G20">
-        <v>104</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="13">
-        <v>43912</v>
-      </c>
-      <c r="C21" s="12">
-        <v>366</v>
-      </c>
-      <c r="D21">
-        <v>1361</v>
-      </c>
-      <c r="E21">
-        <v>1497</v>
-      </c>
-      <c r="F21">
-        <v>264</v>
-      </c>
-      <c r="G21">
-        <v>1380</v>
-      </c>
-      <c r="H21">
-        <v>42</v>
-      </c>
-      <c r="I21">
+      <c r="I26" s="49">
         <v>315</v>
       </c>
     </row>
